--- a/TestResults/AffilTypePut.xlsx
+++ b/TestResults/AffilTypePut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -56,31 +56,31 @@
     <t>Put</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3766268.0"
+		"userName":"Automation"
 	},
 	"geopoliticalAffiliationType":
 	{
-		"affilTypeCode":"TMP",
-		"affilTypeName":"Tamil Metro Pro updated"
+		"affilTypeCode":"Test",
+		"affilTypeName":"TestAffil"
 	}
 }</t>
   </si>
   <si>
-    <t>Input_AffiliationTypeId: 4858291480307886966
-Input_affilTypeCode: TMP
-Input_affilTypeName: Tamil Metro Pro updated
-Input_LastUpdateUserName: 3766268.0
+    <t xml:space="preserve">Input_AffiliationTypeId: 5834185086091978906
+Input_affilTypeCode: Test
+Input_affilTypeName: TestAffil
+Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t>DB_AffiliationTypeId: 4858291480307886966
-DB_affilTypeCode: TMP
-DB_affilTypeName: Tamil Metro Pro updated
-DB_LastUpdateUserName: 3766268.0
+    <t xml:space="preserve">DB_AffiliationTypeId: 5834185086091978906
+DB_affilTypeCode: Test
+DB_affilTypeName: TestAffil
+DB_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
@@ -90,22 +90,22 @@
     <t>200</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3766268.0",
+		"userName":"Automation",
 		"version":"1.0.0",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"GeoplAffilType Details successfully updated with affilTypeId :4858291480307886966",
+			"internalMessage":"GeoplAffilType Details successfully updated with affilTypeId :5834185086091978906",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"affilTypeId":4858291480307886966
+		"affilTypeId":5834185086091978906
 	}
 }</t>
   </si>
@@ -114,53 +114,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Verify that the ERROR message is received when the empty value is passed in JSON for affilTypeCode</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"userName":"3766268.0"
-	},
-	"geopoliticalAffiliationType":
-	{
-		"affilTypeCode":"",
-		"affilTypeName":"Tamil Metro Pro updated"
-	}
-}</t>
-  </si>
-  <si>
-    <t>Input_UserName: 3766268.0
-Input_affilTypeCode: 
-Input_affilTypeName: Tamil Metro Pro updated
-</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>
-{
-	"errorMessages":
-	{
-		"e":"affilTypeCode cannot be a null field!,
-		 "
-	},
-	"errorSummary":"Validation Failed",
-	"timestamp":"16-07-2019 04:57:07"
-}</t>
   </si>
 </sst>
 </file>
@@ -168,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -181,61 +134,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -359,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -395,39 +293,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -442,17 +307,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -526,42 +391,6 @@
       </c>
       <c r="L2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s" s="18">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s" s="22">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="23">
-        <v>21</v>
-      </c>
-      <c r="L3"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestResults/AffilTypePut.xlsx
+++ b/TestResults/AffilTypePut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,22 +64,22 @@
 	},
 	"geopoliticalAffiliationType":
 	{
-		"affilTypeCode":"Test",
-		"affilTypeName":"TestAffil"
+		"affiliationTypeCode":"Test",
+		"affiliationTypeName":"TestAffilA"
 	}
 }</t>
   </si>
   <si>
     <t xml:space="preserve">Input_AffiliationTypeId: 5834185086091978906
-Input_affilTypeCode: Test
-Input_affilTypeName: TestAffil
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: TestAffilA
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
     <t xml:space="preserve">DB_AffiliationTypeId: 5834185086091978906
-DB_affilTypeCode: Test
-DB_affilTypeName: TestAffil
+DB_affiliationTypeCode: Test
+DB_affiliationTypeName: TestAffilA
 DB_LastUpdateUserName: Automation
 </t>
   </si>
@@ -96,16 +96,19 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"09d12555-28ff-4b0a-a7bb-9a83277bd9f5",
+		"timeStamp":"2020-06-18 14:01:42",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"GeoplAffilType Details successfully updated with affilTypeId :5834185086091978906",
+			"internalMessage":"GeopoliticalAffiliatedType Details successfully updated with affiliationTypeId :5834185086091978906",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"affilTypeId":5834185086091978906
+		"affiliationTypeId":5834185086091978906
 	}
 }</t>
   </si>
@@ -114,6 +117,738 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the GeoplAffilType  PUT request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_affiliationTypeId: 5834185086091978906
+DB_affiliationTypeId: 5834185086091978906
+Response_affiliationTypeCode: Test
+DB_affiliationTypeCode: Test
+Response_affiliationTypeName: TestAffilA
+DB_affiliationTypeName: TestAffilA
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for affilTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"",
+		"affiliationTypeName":"Affilcode"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_affiliationTypeCode: 
+Input_affiliationTypeName: Affilcode
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"01b6ff17-e91d-4c2d-b09d-d83bc9b89f6f",
+		"timeStamp":"2020-06-18 14:01:56",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"affiliationTypeCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the GeoplAffilType service is successfully updated when empty value is passed for affilTypeName in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"TestA",
+		"affiliationTypeName":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_AffiliationTypeId: 5834185086091978906
+Input_affiliationTypeCode: TestA
+Input_affiliationTypeName: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_AffiliationTypeId: 5834185086091978906
+DB_affiliationTypeCode: TestA
+DB_affiliationTypeName: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"8d60b499-88fe-4827-9a49-add66c4fb7f7",
+		"timeStamp":"2020-06-18 14:01:57",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"GeopoliticalAffiliatedType Details successfully updated with affiliationTypeId :5834185086091978906",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"affiliationTypeId":5834185086091978906
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Test",
+		"affiliationTypeName":"TestAffil"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: TestAffil
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"110dd023-4a66-4aba-ab8e-c3d2e55491a9",
+		"timeStamp":"2020-06-18 14:02:00",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the affilTypeCode attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeName":"Affilcodeq"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_affiliationTypeCode: 
+Input_affiliationTypeName: Affilcodeq
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"5dc678fd-7378-4ce1-8d4a-b3d2966f42c4",
+		"timeStamp":"2020-06-18 14:02:01",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"affiliationTypeCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the GeoplAffilType service is successfully updated when affilTypeName attributes IS NOT PASSED in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Test"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_AffiliationTypeId: 5834185086091978906
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_AffiliationTypeId: 5834185086091978906
+DB_affiliationTypeCode: Test
+DB_affiliationTypeName: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"4134d08e-6501-447d-9d62-e543b1a4b264",
+		"timeStamp":"2020-06-18 14:02:03",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"GeopoliticalAffiliatedType Details successfully updated with affiliationTypeId :5834185086091978906",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"affiliationTypeId":5834185086091978906
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Test",
+		"affiliationTypeName":"Affilcoded"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: Affilcoded
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"3592e384-cbea-4a7e-9c4f-28036fbfd9f6",
+		"timeStamp":"2020-06-18 14:02:05",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the affilTypeCode is more than 10 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"TestTestTest",
+		"affiliationTypeName":"Affilcodef"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_affiliationTypeCode: TestTestTest
+Input_affiliationTypeName: Affilcodef
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"961aac28-6b88-47a5-9689-208d179d799e",
+		"timeStamp":"2020-06-18 14:02:07",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"affiliationTypeCode",
+			"message":"affilTypeCode cannot be greater than 10 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the affilTypeName is more than 65 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Test",
+		"affiliationTypeName":"AffilcodeAffilcodeAffilcodeAffilcodeAffilcodeAffilcodeAffilcodeAffil"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: AffilcodeAffilcodeAffilcodeAffilcodeAffilcodeAffilcodeAffilcodeAffil
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"26e7e80f-e161-426c-a527-19823ebdf223",
+		"timeStamp":"2020-06-18 14:02:08",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"affiliationTypeName",
+			"message":" cannot be greater than 65 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"AutomationAutomationAuto12"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Test",
+		"affiliationTypeName":"Affilcodej"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: AutomationAutomationAuto12
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: Affilcodej
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"8916464a-b585-4582-9310-dfbada8646f5",
+		"timeStamp":"2020-06-18 14:02:09",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Test",
+		"affiliationTypeName":"Affilcodeo"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_affiliationTypeCode: Test
+Input_affiliationTypeName: Affilcodeo
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"89649919-2ce3-4868-884b-cb5a002b5df9",
+		"timeStamp":"2020-06-18 14:02:11",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/affiliati"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3791813"
+	}  "geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"AffilSpecCharTest"  "affiliationTypeName":"TestAffilA"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3791813
+Input_affiliationTypeCode: AffilSpecCharTest
+Input_affiliationTypeName: TestAffilA
+Input_LastUpdateUserName: 3791813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"e835b896-887a-48af-a443-5b498276b173",
+		"timeStamp":"2020-06-18 14:02:12",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use PUT url but selecting GET method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3791813"
+	},
+	"geopoliticalAffiliationType":
+	{
+		"affiliationTypeCode":"Affilcodttt",
+		"affiliationTypeName":"TestAffilA"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3791813
+Input_affiliationTypeCode: Affilcodttt
+Input_affiliationTypeName: TestAffilA
+Input_LastUpdateUserName: 3791813
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c175de34-8759-4dc2-bf1e-2745b811e6fa",
+		"timeStamp":"2020-06-18 14:02:13",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3791813
+Input_affiliationTypeCode: Affilcodttt
+Input_affiliationTypeName: TestAffilA
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-18T14:02:15.201+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -121,7 +856,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="167">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -134,6 +869,776 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -257,7 +1762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -293,6 +1798,468 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -307,17 +2274,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -391,6 +2358,510 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>93</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
